--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Wendell_Williston/Samuel_Wendell_Williston.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Wendell_Williston/Samuel_Wendell_Williston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Wendell Williston est un paléontologue et un entomologiste américain, né le 10 juillet 1851 à Boston et mort le 30 août 1918 à Chicago.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Samuel et de Jane A. née Turner. Il obtient son Bachelor of Sciences à l’école d’agriculture du Kansas en 1872, puis son Master of Arts en 1875. Il obtient son Medical Doctorat à Yale en 1880 et son Ph. D. en 1885.
 Il se marie avec Annie I. Hathaway le 20 décembre 1880. De 1876 à 1885, il est assistant en paléontologie et en ostéologie, il découvre les premiers ossement du diplodocus. De 1885 à 1886, il est démonstrateur d’anatomie puis professeur de 1886 à 1890. Il est professeur de géologie et d’anatomie à l’école de médecine de l’université du Kansas, dont il est également le doyen. En 1902, il devient professeur de paléontologie à l’université de Chicago.
